--- a/biology/Botanique/Cerinthe_major/Cerinthe_major.xlsx
+++ b/biology/Botanique/Cerinthe_major/Cerinthe_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerinthe major
-Cerinthe major, appelée grand mélinet  est une espèce de plante à fleurs annuelle du genre Cerinthe, originaire de la région méditerranéenne[1]. Le genre Cerinthe appartient à la tribu Lithospermeae dans la sous-famille Boraginoideae au sein de la famille Boraginaceae . Les jardiniers ont le choix parmi une gamme de cultivars allant de l'espèce Cerinthe major, avec des bractées vert d'eau et des fleurs jaunes, à la sous-espèce Cerinthe major subsp. purpurascens avec des bractées bleues et des fleurs violettes[2].
+Cerinthe major, appelée grand mélinet  est une espèce de plante à fleurs annuelle du genre Cerinthe, originaire de la région méditerranéenne. Le genre Cerinthe appartient à la tribu Lithospermeae dans la sous-famille Boraginoideae au sein de la famille Boraginaceae . Les jardiniers ont le choix parmi une gamme de cultivars allant de l'espèce Cerinthe major, avec des bractées vert d'eau et des fleurs jaunes, à la sous-espèce Cerinthe major subsp. purpurascens avec des bractées bleues et des fleurs violettes.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces suivantes sont actuellement acceptées sur POWO (Plants of the World Online)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces suivantes sont actuellement acceptées sur POWO (Plants of the World Online) :
 Cerinthe major subsp. major
 Cerinthe major subsp. oranensis (Batt.) Selvi et L.Cecchi
 Cerinthe major subsp. purpurascens (Boiss.) Selvi &amp; L.Cecchi
-Sur Flore méditerranéenne[3] et sur le site Tela Botanica , il est fait référence à une autre sous-espèce[4].
+Sur Flore méditerranéenne et sur le site Tela Botanica , il est fait référence à une autre sous-espèce.
 Cerinthe major subsp.  gymnandra (Gasp.) Rouy
 </t>
         </is>
